--- a/teaching/traditional_assets/database/data/cyprus/cyprus_coal_related_energy.xlsx
+++ b/teaching/traditional_assets/database/data/cyprus/cyprus_coal_related_energy.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="K2">
-        <v>-0.035</v>
+        <v>-0.036</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -621,49 +621,49 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.2058823529411765</v>
+        <v>0.175609756097561</v>
       </c>
       <c r="X2">
-        <v>0.1320851332951851</v>
+        <v>0.1022842077691</v>
       </c>
       <c r="Y2">
-        <v>0.0737972196459914</v>
+        <v>0.07332554832846101</v>
       </c>
       <c r="Z2">
         <v>-0</v>
       </c>
       <c r="AA2">
-        <v>1.359999999999999</v>
+        <v>1.25925925925926</v>
       </c>
       <c r="AB2">
-        <v>0.1252721019773267</v>
+        <v>0.08687786186139404</v>
       </c>
       <c r="AC2">
-        <v>1.234727898022672</v>
+        <v>1.172381397397865</v>
       </c>
       <c r="AD2">
-        <v>0.178</v>
+        <v>0.217</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.178</v>
+        <v>0.217</v>
       </c>
       <c r="AG2">
-        <v>0.178</v>
+        <v>0.217</v>
       </c>
       <c r="AH2">
-        <v>0.08864541832669322</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="AI2">
-        <v>-6.592592592592593</v>
+        <v>-9.04166666666667</v>
       </c>
       <c r="AJ2">
-        <v>0.08864541832669322</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="AK2">
-        <v>-6.592592592592593</v>
+        <v>-9.04166666666667</v>
       </c>
       <c r="AL2">
         <v>0.002</v>
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>-0.035</v>
+        <v>-0.036</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -725,49 +725,49 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.2058823529411765</v>
+        <v>0.175609756097561</v>
       </c>
       <c r="X3">
-        <v>0.1320851332951851</v>
+        <v>0.1022842077691</v>
       </c>
       <c r="Y3">
-        <v>0.0737972196459914</v>
+        <v>0.07332554832846101</v>
       </c>
       <c r="Z3">
         <v>-0</v>
       </c>
       <c r="AA3">
-        <v>1.359999999999999</v>
+        <v>1.25925925925926</v>
       </c>
       <c r="AB3">
-        <v>0.1252721019773267</v>
+        <v>0.08687786186139404</v>
       </c>
       <c r="AC3">
-        <v>1.234727898022672</v>
+        <v>1.172381397397865</v>
       </c>
       <c r="AD3">
-        <v>0.178</v>
+        <v>0.217</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.178</v>
+        <v>0.217</v>
       </c>
       <c r="AG3">
-        <v>0.178</v>
+        <v>0.217</v>
       </c>
       <c r="AH3">
-        <v>0.08864541832669322</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="AI3">
-        <v>-6.592592592592593</v>
+        <v>-9.04166666666667</v>
       </c>
       <c r="AJ3">
-        <v>0.08864541832669322</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="AK3">
-        <v>-6.592592592592593</v>
+        <v>-9.04166666666667</v>
       </c>
       <c r="AL3">
         <v>0.002</v>
